--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlRcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6FD8F-D755-4C65-9943-1E12A12819EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04DCBD-5CA7-4C9A-BAA5-C6652A819DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{142806E7-13F3-419C-8327-7960B1DD74BB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -590,7 +590,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,9 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB815C5-1EF0-41CF-B3A2-3129BCBC0527}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2395,9 +2393,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str" cm="1">
         <f t="array" ref="A3">_xll.XLRCODE_ENV(A1, "MyGraphs")</f>
-        <v xml:space="preserve">Error in png(filename = "C:/Users/Eduardo/Google Drive/Meus Projetos/xlRcode/Temp/dummy.png",  : 
-  n�o � poss�vel iniciar dispositivo png()
-</v>
+        <v>Code ran without errors!</v>
       </c>
     </row>
   </sheetData>
